--- a/differentially_private_dataD.xlsx
+++ b/differentially_private_dataD.xlsx
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D2" t="n">
         <v>2300</v>
@@ -502,7 +502,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="D4" t="n">
         <v>2400</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D5" t="n">
         <v>2200</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D6" t="n">
         <v>2400</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -665,14 +665,14 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="D7" t="n">
         <v>2400</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -701,14 +701,14 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D8" t="n">
         <v>2400</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D9" t="n">
         <v>2300</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D10" t="n">
         <v>2300</v>
@@ -790,7 +790,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D11" t="n">
         <v>2300</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D12" t="n">
         <v>2400</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="D13" t="n">
         <v>2200</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="D14" t="n">
         <v>2200</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D15" t="n">
         <v>2100</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D16" t="n">
         <v>2400</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1025,14 +1025,14 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="D17" t="n">
         <v>2400</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="D18" t="n">
         <v>2400</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="D19" t="n">
         <v>2200</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="D20" t="n">
         <v>2200</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="D21" t="n">
         <v>2100</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D22" t="n">
         <v>2100</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="D23" t="n">
         <v>2400</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="D24" t="n">
         <v>2400</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="D25" t="n">
         <v>2300</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="D26" t="n">
         <v>2300</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D27" t="n">
         <v>2400</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D28" t="n">
         <v>2100</v>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1457,14 +1457,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="D29" t="n">
         <v>2400</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D30" t="n">
         <v>2400</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="D31" t="n">
         <v>2100</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="D32" t="n">
         <v>2300</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1958</v>
+        <v>1964</v>
       </c>
       <c r="D33" t="n">
         <v>2200</v>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D34" t="n">
         <v>2200</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D36" t="n">
         <v>2300</v>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D37" t="n">
         <v>2200</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="D38" t="n">
         <v>2200</v>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="D40" t="n">
         <v>2200</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D41" t="n">
         <v>2300</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1947</v>
+        <v>1953</v>
       </c>
       <c r="D42" t="n">
         <v>2400</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1961,14 +1961,14 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D43" t="n">
         <v>2300</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1997,14 +1997,14 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="D44" t="n">
         <v>2100</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="D45" t="n">
         <v>2400</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="D46" t="n">
         <v>2100</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="D47" t="n">
         <v>2100</v>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D48" t="n">
         <v>2200</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="D49" t="n">
         <v>2300</v>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1988</v>
+        <v>1977</v>
       </c>
       <c r="D50" t="n">
         <v>2400</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D51" t="n">
         <v>2400</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D52" t="n">
         <v>2300</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D53" t="n">
         <v>2400</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D54" t="n">
         <v>2400</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="D55" t="n">
         <v>2300</v>
@@ -2429,14 +2429,14 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D56" t="n">
         <v>2300</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="D57" t="n">
         <v>2400</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="D58" t="n">
         <v>2400</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="D59" t="n">
         <v>2400</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D60" t="n">
         <v>2400</v>
@@ -2609,14 +2609,14 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="D61" t="n">
         <v>2400</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="D62" t="n">
         <v>2200</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D64" t="n">
         <v>2300</v>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D65" t="n">
         <v>2400</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D66" t="n">
         <v>2100</v>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D67" t="n">
         <v>2200</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="D68" t="n">
         <v>2100</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="D69" t="n">
         <v>2100</v>
@@ -2933,14 +2933,14 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="D70" t="n">
         <v>2200</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2969,14 +2969,14 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="D71" t="n">
         <v>2200</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="D72" t="n">
         <v>2300</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="D73" t="n">
         <v>2400</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="D74" t="n">
         <v>2200</v>
@@ -3113,14 +3113,14 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="D75" t="n">
         <v>2300</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D76" t="n">
         <v>2100</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1947</v>
+        <v>1952</v>
       </c>
       <c r="D78" t="n">
         <v>2400</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D79" t="n">
         <v>2200</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="D80" t="n">
         <v>2400</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="D81" t="n">
         <v>2300</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D82" t="n">
         <v>2200</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D84" t="n">
         <v>2200</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D85" t="n">
         <v>2100</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="D86" t="n">
         <v>2200</v>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="D87" t="n">
         <v>2100</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="D88" t="n">
         <v>2400</v>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="D89" t="n">
         <v>2200</v>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="D90" t="n">
         <v>2300</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D91" t="n">
         <v>2100</v>
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="D92" t="n">
         <v>2200</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D93" t="n">
         <v>2400</v>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D94" t="n">
         <v>2400</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D95" t="n">
         <v>2400</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D96" t="n">
         <v>2100</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="D97" t="n">
         <v>2100</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="D98" t="n">
         <v>2400</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D99" t="n">
         <v>2300</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D100" t="n">
         <v>2300</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D101" t="n">
         <v>2400</v>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D103" t="n">
         <v>2300</v>
@@ -4157,14 +4157,14 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="D104" t="n">
         <v>2400</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="D105" t="n">
         <v>2200</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="D106" t="n">
         <v>2100</v>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D107" t="n">
         <v>2300</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D108" t="n">
         <v>2400</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4337,14 +4337,14 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="D109" t="n">
         <v>2300</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="D110" t="n">
         <v>2100</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D111" t="n">
         <v>2400</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="D112" t="n">
         <v>2200</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="D113" t="n">
         <v>2300</v>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Widowed</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4553,14 +4553,14 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="D115" t="n">
         <v>2400</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D116" t="n">
         <v>2400</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1958</v>
+        <v>1947</v>
       </c>
       <c r="D117" t="n">
         <v>2300</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D119" t="n">
         <v>2100</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="D120" t="n">
         <v>2200</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D121" t="n">
         <v>2200</v>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D122" t="n">
         <v>2300</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="D124" t="n">
         <v>2200</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="D125" t="n">
         <v>2400</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D126" t="n">
         <v>2200</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="D127" t="n">
         <v>2400</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D128" t="n">
         <v>2200</v>
@@ -5057,14 +5057,14 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D129" t="n">
         <v>2400</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D130" t="n">
         <v>2200</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1959</v>
+        <v>1948</v>
       </c>
       <c r="D132" t="n">
         <v>2400</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="D133" t="n">
         <v>2300</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="D134" t="n">
         <v>2200</v>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="D135" t="n">
         <v>2200</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D136" t="n">
         <v>2400</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="D137" t="n">
         <v>2300</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="D138" t="n">
         <v>2400</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D139" t="n">
         <v>2300</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="D140" t="n">
         <v>2300</v>
@@ -5489,14 +5489,14 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="D141" t="n">
         <v>2400</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="D142" t="n">
         <v>2200</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="D143" t="n">
         <v>2400</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D145" t="n">
         <v>2300</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D146" t="n">
         <v>2300</v>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="D147" t="n">
         <v>2300</v>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="D148" t="n">
         <v>2200</v>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D149" t="n">
         <v>2300</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -5813,14 +5813,14 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D150" t="n">
         <v>2200</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -5921,14 +5921,14 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D153" t="n">
         <v>2400</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D154" t="n">
         <v>2400</v>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="D155" t="n">
         <v>2300</v>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="D156" t="n">
         <v>2400</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="D157" t="n">
         <v>2300</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Never married</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D159" t="n">
         <v>2300</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D160" t="n">
         <v>2300</v>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="D161" t="n">
         <v>2300</v>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="D162" t="n">
         <v>2100</v>
@@ -6281,14 +6281,14 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D163" t="n">
         <v>2100</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D164" t="n">
         <v>2200</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D166" t="n">
         <v>2100</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1945</v>
+        <v>1951</v>
       </c>
       <c r="D167" t="n">
         <v>2400</v>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Widowed</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D168" t="n">
         <v>2300</v>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Never married</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="D169" t="n">
         <v>2300</v>
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D171" t="n">
         <v>2300</v>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="D172" t="n">
         <v>2300</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D173" t="n">
         <v>2400</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D174" t="n">
         <v>2200</v>
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="D175" t="n">
         <v>2400</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="D176" t="n">
         <v>2400</v>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D177" t="n">
         <v>2200</v>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D178" t="n">
         <v>2200</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D179" t="n">
         <v>2200</v>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D180" t="n">
         <v>2400</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D181" t="n">
         <v>2300</v>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="D182" t="n">
         <v>2400</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="D183" t="n">
         <v>2400</v>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="D184" t="n">
         <v>2300</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D185" t="n">
         <v>2300</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="D186" t="n">
         <v>2300</v>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D187" t="n">
         <v>2400</v>
@@ -7181,14 +7181,14 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="D188" t="n">
         <v>2400</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D189" t="n">
         <v>2400</v>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Married/separated</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="D190" t="n">
         <v>2400</v>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Divorced</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="D191" t="n">
         <v>2300</v>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D192" t="n">
         <v>2100</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="D193" t="n">
         <v>2200</v>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="D194" t="n">
         <v>2200</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="D195" t="n">
         <v>2400</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Married/separated</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="D196" t="n">
         <v>2200</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="D197" t="n">
         <v>2300</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D199" t="n">
         <v>2300</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Divorced</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="D200" t="n">
         <v>2400</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D201" t="n">
         <v>2200</v>
